--- a/Project 4/fittness function Asseser.xlsx
+++ b/Project 4/fittness function Asseser.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josia\Documents\UNI Stuff\CS\24 25\Algorithms and Data Structures\CourseWork\ADS\Project 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E734025-DFE5-4C57-9C74-37CAF5C27F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C492BCEB-FA32-48F5-A20A-268CA73EF6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE393ED3-7240-40C8-B9D9-A20F9EB32697}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{DE393ED3-7240-40C8-B9D9-A20F9EB32697}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fitness values" sheetId="1" r:id="rId1"/>
+    <sheet name="Num chnages " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Bin</t>
   </si>
@@ -63,6 +64,39 @@
   </si>
   <si>
     <t>Fitness3</t>
+  </si>
+  <si>
+    <t>Fitness1 Difference</t>
+  </si>
+  <si>
+    <t>Fitness2 Difference</t>
+  </si>
+  <si>
+    <t>Fitness3 Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">index </t>
+  </si>
+  <si>
+    <t>bins:</t>
+  </si>
+  <si>
+    <t>Data:</t>
+  </si>
+  <si>
+    <t>index:</t>
+  </si>
+  <si>
+    <t>DataSet:</t>
+  </si>
+  <si>
+    <t>numChanges:</t>
+  </si>
+  <si>
+    <t>Fitness</t>
   </si>
 </sst>
 </file>
@@ -197,8 +231,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9080927384076991E-2"/>
-          <c:y val="5.6923665791776025E-2"/>
+          <c:x val="5.9080927384077005E-2"/>
+          <c:y val="5.6923674540682416E-2"/>
           <c:w val="0.8964746281714786"/>
           <c:h val="0.7692128171478565"/>
         </c:manualLayout>
@@ -211,7 +245,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>'Fitness values'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -234,7 +268,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$17</c:f>
+              <c:f>'Fitness values'!$E$3:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -288,12 +322,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$17</c:f>
+              <c:f>'Fitness values'!$G$3:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.13333333333333333</c:v>
@@ -352,7 +386,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>'Fitness values'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -375,7 +409,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$17</c:f>
+              <c:f>'Fitness values'!$E$3:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -429,7 +463,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$17</c:f>
+              <c:f>'Fitness values'!$H$3:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -493,7 +527,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>'Fitness values'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -516,7 +550,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$17</c:f>
+              <c:f>'Fitness values'!$E$3:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -570,7 +604,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$17</c:f>
+              <c:f>'Fitness values'!$I$3:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -750,6 +784,605 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Fitness values'!$E$4:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fitness values'!$K$4:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-0.56666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.666666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6666666666666652E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6666666666666707E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6666666666666652E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6666666666666652E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6666666666666652E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6666666666666652E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6666666666666763E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6666666666666541E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6666666666666763E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6666666666666541E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6666666666666763E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D7E-48A0-B19A-4D8F3CD86104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Fitness values'!$E$4:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fitness values'!$L$4:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.6666666666666672E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3333333333333336E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3333333333333336E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6666666666666693E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6666666666666644E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6666666666666707E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9999999999999925E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14666666666666678</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3333333333333379E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3333333333333233E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18666666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D7E-48A0-B19A-4D8F3CD86104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Fitness values'!$E$4:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fitness values'!$M$4:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.23104906018664845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13515503603605483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5894024150593615E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4381183771403236E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0773852264651484E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1383559942419499E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4510464208174172E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9261011885461272E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5120171885941964E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1770059934774886E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.900379232987671E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6680902557845498E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4702657384573889E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D7E-48A0-B19A-4D8F3CD86104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="136206080"/>
+        <c:axId val="136206560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="136206080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136206560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136206560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136206080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -864,6 +1497,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1380,20 +2053,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>379095</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1413,6 +2602,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42AEA74-73D5-A54E-E720-21FAEF0DB294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1738,19 +2963,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3557BAA-DD07-4E63-BCDB-1C67B29F5E3C}">
-  <dimension ref="A2:I17"/>
+  <dimension ref="A2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1778,8 +3004,17 @@
       <c r="I2" t="s">
         <v>8</v>
       </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1794,8 +3029,8 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f>AVERAGE(B3,C3,D3)/$F$5</f>
-        <v>6.6666666666666666E-2</v>
+        <f>'Num chnages '!P3</f>
+        <v>0.7</v>
       </c>
       <c r="H3">
         <f>((B3/$F$5)*(B3/$F$5)+(C3/$F$5)*(C3/$F$5)+(D3/$F$5)*(C3/$F$5))/3</f>
@@ -1806,7 +3041,7 @@
         <v>9.7316599632596645E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1832,8 +3067,20 @@
         <f t="shared" ref="I4:I17" si="0">(LN(E4/($F$5*3))+3)/3</f>
         <v>0.32836565981924509</v>
       </c>
+      <c r="K4">
+        <f>G4-G3</f>
+        <v>-0.56666666666666665</v>
+      </c>
+      <c r="L4">
+        <f>H4-H3</f>
+        <v>2.6666666666666672E-2</v>
+      </c>
+      <c r="M4">
+        <f>I4-I3</f>
+        <v>0.23104906018664845</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1844,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <f>SUM(B5:D5)</f>
+        <f t="shared" ref="E5:E16" si="1">SUM(B5:D5)</f>
         <v>3</v>
       </c>
       <c r="F5">
@@ -1862,8 +3109,20 @@
         <f t="shared" si="0"/>
         <v>0.46352069585529992</v>
       </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K16" si="2">G5-G4</f>
+        <v>6.666666666666668E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L16" si="3">H5-H4</f>
+        <v>1.3333333333333336E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M16" si="4">I5-I4</f>
+        <v>0.13515503603605483</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1874,23 +3133,35 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <f>SUM(B6:D6)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G7" si="1">AVERAGE(B6,C6,D6)/$F$5</f>
+        <f t="shared" ref="G6:G7" si="5">AVERAGE(B6,C6,D6)/$F$5</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H7" si="2">((B6/$F$5)*(B6/$F$5)+(C6/$F$5)*(C6/$F$5)+(D6/$F$5)*(C6/$F$5))/3</f>
+        <f t="shared" ref="H6:H7" si="6">((B6/$F$5)*(B6/$F$5)+(C6/$F$5)*(C6/$F$5)+(D6/$F$5)*(C6/$F$5))/3</f>
         <v>5.3333333333333344E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
         <v>0.55941472000589354</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333336E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>9.5894024150593615E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1901,23 +3172,35 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <f>SUM(B7:D7)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.12000000000000004</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
         <v>0.63379590377729678</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666707E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>7.4381183771403236E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -1928,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E17" si="3">SUM(B8:D8)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G8">
@@ -1943,8 +3226,20 @@
         <f t="shared" si="0"/>
         <v>0.69456975604194826</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>6.0773852264651484E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
@@ -1955,7 +3250,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G9">
@@ -1970,8 +3265,20 @@
         <f t="shared" si="0"/>
         <v>0.74595331598436776</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666644E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>5.1383559942419499E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2</v>
       </c>
@@ -1982,7 +3289,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G10">
@@ -1997,8 +3304,20 @@
         <f t="shared" si="0"/>
         <v>0.79046378019254193</v>
       </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>0.10666666666666666</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>4.4510464208174172E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3</v>
       </c>
@@ -2009,7 +3328,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G11">
@@ -2024,8 +3343,20 @@
         <f t="shared" si="0"/>
         <v>0.8297247920780032</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666707E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>3.9261011885461272E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3</v>
       </c>
@@ -2036,7 +3367,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G12">
@@ -2051,8 +3382,20 @@
         <f t="shared" si="0"/>
         <v>0.86484496396394517</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666763E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>3.5120171885941964E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>3</v>
       </c>
@@ -2063,7 +3406,7 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G13">
@@ -2078,8 +3421,20 @@
         <f t="shared" si="0"/>
         <v>0.89661502389872005</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666541E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>0.14666666666666678</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>3.1770059934774886E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>4</v>
       </c>
@@ -2090,7 +3445,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G14">
@@ -2105,8 +3460,20 @@
         <f t="shared" si="0"/>
         <v>0.92561881622859676</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666763E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>9.3333333333333379E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>2.900379232987671E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4</v>
       </c>
@@ -2117,23 +3484,35 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G16" si="4">AVERAGE(B15,C15,D15)/$F$5</f>
+        <f t="shared" ref="G15:G16" si="7">AVERAGE(B15,C15,D15)/$F$5</f>
         <v>0.86666666666666659</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H16" si="5">((B15/$F$5)*(B15/$F$5)+(C15/$F$5)*(C15/$F$5)+(D15/$F$5)*(C15/$F$5))/3</f>
+        <f t="shared" ref="H15:H16" si="8">((B15/$F$5)*(B15/$F$5)+(C15/$F$5)*(C15/$F$5)+(D15/$F$5)*(C15/$F$5))/3</f>
         <v>0.69333333333333336</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
         <v>0.95229971878644226</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666541E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>5.3333333333333233E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>2.6680902557845498E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>4</v>
       </c>
@@ -2144,23 +3523,35 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="H16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.88</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
         <v>0.97700237617101615</v>
       </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666763E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>0.18666666666666665</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>2.4702657384573889E-2</v>
+      </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>5</v>
       </c>
@@ -2171,7 +3562,7 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E8:E17" si="9">SUM(B17:D17)</f>
         <v>15</v>
       </c>
       <c r="G17">
@@ -2191,4 +3582,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F756547-4BB2-475F-A74B-2666F9633754}">
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE(M3,N3,O3)/$H$3</f>
+        <v>0.7</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project 4/fittness function Asseser.xlsx
+++ b/Project 4/fittness function Asseser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josia\Documents\UNI Stuff\CS\24 25\Algorithms and Data Structures\CourseWork\ADS\Project 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C492BCEB-FA32-48F5-A20A-268CA73EF6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578E6CC-4052-4F5C-83D8-741D96BFC159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{DE393ED3-7240-40C8-B9D9-A20F9EB32697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{DE393ED3-7240-40C8-B9D9-A20F9EB32697}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitness values" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.13333333333333333</c:v>
@@ -978,7 +978,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-0.56666666666666665</c:v>
+                  <c:v>-0.66666666666666674</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.666666666666668E-2</c:v>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="G3">
         <f>'Num chnages '!P3</f>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H3">
         <f>((B3/$F$5)*(B3/$F$5)+(C3/$F$5)*(C3/$F$5)+(D3/$F$5)*(C3/$F$5))/3</f>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="K4">
         <f>G4-G3</f>
-        <v>-0.56666666666666665</v>
+        <v>-0.66666666666666674</v>
       </c>
       <c r="L4">
         <f>H4-H3</f>
@@ -3562,7 +3562,7 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E8:E17" si="9">SUM(B17:D17)</f>
+        <f t="shared" ref="E17" si="9">SUM(B17:D17)</f>
         <v>15</v>
       </c>
       <c r="G17">
@@ -3588,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F756547-4BB2-475F-A74B-2666F9633754}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3686,6 +3686,9 @@
       <c r="H3">
         <v>5</v>
       </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
       <c r="N3">
         <v>5</v>
       </c>
@@ -3694,7 +3697,7 @@
       </c>
       <c r="P3">
         <f>AVERAGE(M3,N3,O3)/$H$3</f>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
